--- a/xlsx/法律心理学_intext.xlsx
+++ b/xlsx/法律心理学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
   <si>
     <t>法律心理学</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -107,43 +107,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -167,43 +167,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -287,19 +287,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -359,15 +359,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
@@ -383,13 +380,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大學</t>
+    <t>哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A5%E5%9F%BA%E6%81%A9%C2%B7%E5%8D%A1%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>詹姆斯·麥基恩·卡特爾</t>
+    <t>詹姆斯·麦基恩·卡特尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E4%BE%9B</t>
@@ -401,13 +398,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>異常行為</t>
+    <t>异常行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E5%85%8B%E6%96%AF%E5%8B%92%E6%88%90%E4%BA%BA%E6%99%BA%E5%8A%9B%E9%87%8F%E8%A1%A8</t>
@@ -443,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BF%83%E7%90%86%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國心理學協會</t>
+    <t>美国心理学协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>行為</t>
+    <t>行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E5%91%8A</t>
@@ -485,51 +482,27 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理学史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理学家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>生物心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>发展心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>实验心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>数学心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>神经心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>正面心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%90%86%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
@@ -539,9 +512,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>社会心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AE%BA%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
@@ -551,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學心理學</t>
+    <t>哲学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學心理學</t>
+    <t>科学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
@@ -575,9 +545,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E7%BE%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人本主義心理學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Affective_science</t>
   </si>
   <si>
@@ -593,39 +560,36 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>行為主義</t>
+    <t>行为主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神分析學</t>
+    <t>精神分析学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知神經科學</t>
+    <t>认知神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>心理測驗</t>
+    <t>心理测验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%B0%8E</t>
   </si>
   <si>
-    <t>輔導</t>
+    <t>辅导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>教育心理学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Media_psychology</t>
   </si>
   <si>
@@ -635,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%B8%AB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>牧師心理學</t>
+    <t>牧师心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -659,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E6%B8%AC%E8%A9%A6</t>
   </si>
   <si>
-    <t>動物測試</t>
+    <t>动物测试</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Archival_research</t>
@@ -683,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%AE%B9%E5%88%86%E6%9E%90%E6%B3%95</t>
   </si>
   <si>
-    <t>內容分析法</t>
+    <t>内容分析法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%AF%95%E9%AA%8C</t>
@@ -695,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E8%AB%87</t>
   </si>
   <si>
-    <t>面談</t>
+    <t>面谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E6%88%90%E5%83%8F</t>
@@ -731,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>社會統計調查</t>
+    <t>社会统计调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%8A%9B</t>
@@ -755,9 +719,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>行为主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E8%A1%8C%E4%B8%BA%E7%96%97%E6%B3%95</t>
   </si>
   <si>
@@ -767,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>認知主義</t>
+    <t>认知主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Descriptive_psychology</t>
@@ -833,13 +794,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90%E5%AD%A6</t>
   </si>
   <si>
-    <t>精神分析学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%80%8B%E4%BA%BA%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>超個人心理學</t>
+    <t>超个人心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -875,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%AE%91%E6%AF%94</t>
   </si>
   <si>
-    <t>約翰·鮑比</t>
+    <t>约翰·鲍比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%92%99%E5%BE%B7%C2%B7%E5%8D%A1%E7%89%B9%E5%B0%94</t>
@@ -935,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%C2%B7L%C2%B7%E8%B5%AB%E7%88%BE</t>
   </si>
   <si>
-    <t>克拉克·L·赫爾</t>
+    <t>克拉克·L·赫尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB</t>
@@ -1007,13 +965,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93%C2%B7%E7%9A%AE%E4%BA%9E%E5%82%91</t>
   </si>
   <si>
-    <t>讓·皮亞傑</t>
+    <t>让·皮亚杰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E7%BE%85%E5%93%B2%E6%96%AF</t>
   </si>
   <si>
-    <t>卡爾·羅哲斯</t>
+    <t>卡尔·罗哲斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanley_Schachter</t>
@@ -1031,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%A1%91%E4%BB%A3%E5%85%8B</t>
   </si>
   <si>
-    <t>愛德華·桑代克</t>
+    <t>爱德华·桑代克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%83%E7%BD%97%E5%BE%B7%E6%96%AF%C2%B7%E5%8D%8E%E7%94%9F</t>
@@ -1049,31 +1007,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E8%89%BE%E8%B3%93%E6%B5%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>赫爾曼·艾賓浩斯</t>
+    <t>赫尔曼·艾宾浩斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AD%A6%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理学学科列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E6%A6%82%E8%A6%81</t>
   </si>
   <si>
-    <t>心理學概要</t>
+    <t>心理学概要</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>心理療法</t>
+    <t>心理疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AD%A6%E6%B4%BE%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikiquote.org/wiki/Psychology</t>
@@ -3112,7 +3064,7 @@
         <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
         <v>93</v>
@@ -3138,10 +3090,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>18</v>
@@ -3167,10 +3119,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -3196,10 +3148,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3225,10 +3177,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3254,10 +3206,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3283,10 +3235,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3312,10 +3264,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3341,10 +3293,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3370,10 +3322,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3399,10 +3351,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3428,10 +3380,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3457,10 +3409,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3486,10 +3438,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3515,10 +3467,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>8</v>
@@ -3544,10 +3496,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3573,10 +3525,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3602,10 +3554,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -3631,10 +3583,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3660,10 +3612,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>131</v>
@@ -3689,10 +3641,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3718,10 +3670,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3776,10 +3728,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3863,10 +3815,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3921,10 +3873,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3950,10 +3902,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3979,10 +3931,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4037,10 +3989,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4066,10 +4018,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4095,10 +4047,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4124,10 +4076,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4153,10 +4105,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4182,10 +4134,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -4211,10 +4163,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4240,10 +4192,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4269,10 +4221,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4298,10 +4250,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4327,10 +4279,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4356,10 +4308,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4385,10 +4337,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4414,10 +4366,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4501,10 +4453,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4530,10 +4482,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4559,10 +4511,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4646,10 +4598,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F111" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4675,10 +4627,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4704,10 +4656,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4762,10 +4714,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F115" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4791,10 +4743,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F116" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4849,10 +4801,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F118" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4878,10 +4830,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F119" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4936,10 +4888,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F121" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4965,10 +4917,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4994,10 +4946,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F123" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5023,10 +4975,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F124" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5052,10 +5004,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F125" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5081,10 +5033,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F126" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5110,10 +5062,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F127" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5139,10 +5091,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F128" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5168,10 +5120,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F129" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5197,10 +5149,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F130" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5226,10 +5178,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F131" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5255,10 +5207,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F132" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5284,10 +5236,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F133" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5313,10 +5265,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F134" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5342,10 +5294,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F135" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5371,10 +5323,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F136" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5400,10 +5352,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F137" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5429,10 +5381,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F138" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5458,10 +5410,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5487,10 +5439,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F140" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5516,10 +5468,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F141" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5545,10 +5497,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F142" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5574,10 +5526,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5603,10 +5555,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F144" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5661,10 +5613,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F146" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5690,10 +5642,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="F147" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5719,10 +5671,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F148" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5748,10 +5700,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F149" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5777,10 +5729,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F150" t="s">
-        <v>272</v>
+        <v>183</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5806,10 +5758,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F151" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5835,10 +5787,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F152" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5864,10 +5816,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="F153" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5893,10 +5845,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F154" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5922,10 +5874,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F155" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5951,10 +5903,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F156" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5980,10 +5932,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F157" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6009,10 +5961,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F158" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6038,10 +5990,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F159" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6067,10 +6019,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F160" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6096,10 +6048,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F161" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6125,10 +6077,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F162" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6154,10 +6106,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F163" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6183,10 +6135,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F164" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6212,10 +6164,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F165" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6241,10 +6193,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="F166" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6270,10 +6222,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F167" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6299,10 +6251,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="F168" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6328,10 +6280,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F169" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6357,10 +6309,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="F170" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6386,10 +6338,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F171" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6415,10 +6367,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6444,10 +6396,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F173" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6473,10 +6425,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F174" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6502,10 +6454,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F175" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6531,10 +6483,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F176" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6560,10 +6512,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F177" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6589,10 +6541,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F178" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6618,10 +6570,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F179" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6647,10 +6599,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F180" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6676,10 +6628,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F181" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6705,10 +6657,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F182" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6734,10 +6686,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F183" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6763,10 +6715,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F184" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6792,10 +6744,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F185" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6821,10 +6773,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F186" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6850,10 +6802,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F187" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6879,10 +6831,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F188" t="s">
-        <v>346</v>
+        <v>94</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6908,10 +6860,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="F189" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6937,10 +6889,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="F190" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -6966,10 +6918,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F191" t="s">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -6995,10 +6947,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="F192" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7024,10 +6976,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="F193" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7053,10 +7005,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="F194" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
